--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -5758,7 +5758,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DEEB7816-D811-4FC9-9113-7C51F3BEAC9B}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CD7E3CD7-3517-4D69-988D-A40F375600FE}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
@@ -6038,8 +6038,8 @@
   <sheetPr/>
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6072,7 +6072,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6080,7 +6080,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6088,7 +6088,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6096,7 +6096,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6104,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6112,7 +6112,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6120,7 +6120,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6128,7 +6128,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6136,7 +6136,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6144,7 +6144,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6152,7 +6152,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6160,7 +6160,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6168,7 +6168,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6176,7 +6176,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6184,7 +6184,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6192,7 +6192,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6200,7 +6200,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6208,7 +6208,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6216,7 +6216,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6224,7 +6224,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6232,7 +6232,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6240,7 +6240,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6248,7 +6248,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6256,7 +6256,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6264,7 +6264,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6272,7 +6272,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6280,7 +6280,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6288,7 +6288,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6296,7 +6296,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6304,7 +6304,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6312,7 +6312,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6320,7 +6320,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6328,7 +6328,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6336,7 +6336,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6344,7 +6344,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6352,7 +6352,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6360,7 +6360,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6368,7 +6368,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6376,7 +6376,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6384,7 +6384,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6392,7 +6392,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6400,7 +6400,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6408,7 +6408,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6416,7 +6416,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6424,7 +6424,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6432,7 +6432,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6440,7 +6440,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -6448,7 +6448,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6456,7 +6456,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -6464,7 +6464,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -6472,7 +6472,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6480,7 +6480,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6488,7 +6488,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -6496,7 +6496,7 @@
         <v>58</v>
       </c>
       <c r="B56" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -6504,7 +6504,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -6512,7 +6512,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -6520,7 +6520,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -6528,7 +6528,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6536,7 +6536,7 @@
         <v>63</v>
       </c>
       <c r="B61" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -6544,7 +6544,7 @@
         <v>64</v>
       </c>
       <c r="B62" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -6552,7 +6552,7 @@
         <v>65</v>
       </c>
       <c r="B63" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -6560,7 +6560,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -6568,7 +6568,7 @@
         <v>67</v>
       </c>
       <c r="B65" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6576,7 +6576,7 @@
         <v>68</v>
       </c>
       <c r="B66" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6584,7 +6584,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6592,7 +6592,7 @@
         <v>70</v>
       </c>
       <c r="B68" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -6600,7 +6600,7 @@
         <v>71</v>
       </c>
       <c r="B69" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6608,7 +6608,7 @@
         <v>72</v>
       </c>
       <c r="B70" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -6616,7 +6616,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6624,7 +6624,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6632,7 +6632,7 @@
         <v>75</v>
       </c>
       <c r="B73" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -6640,7 +6640,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6648,7 +6648,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6656,7 +6656,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6664,7 +6664,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -6672,7 +6672,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -6680,7 +6680,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6688,7 +6688,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -6696,7 +6696,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6704,7 +6704,7 @@
         <v>84</v>
       </c>
       <c r="B82" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -6712,7 +6712,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -6720,7 +6720,7 @@
         <v>86</v>
       </c>
       <c r="B84" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -6736,7 +6736,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -6744,7 +6744,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -6752,7 +6752,7 @@
         <v>90</v>
       </c>
       <c r="B88" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -6760,7 +6760,7 @@
         <v>91</v>
       </c>
       <c r="B89" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -6768,7 +6768,7 @@
         <v>92</v>
       </c>
       <c r="B90" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -6776,7 +6776,7 @@
         <v>93</v>
       </c>
       <c r="B91" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -6784,7 +6784,7 @@
         <v>94</v>
       </c>
       <c r="B92" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6792,7 +6792,7 @@
         <v>95</v>
       </c>
       <c r="B93" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -6800,7 +6800,7 @@
         <v>96</v>
       </c>
       <c r="B94" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6808,7 +6808,7 @@
         <v>97</v>
       </c>
       <c r="B95" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6816,7 +6816,7 @@
         <v>98</v>
       </c>
       <c r="B96" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -6824,7 +6824,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -6832,7 +6832,7 @@
         <v>100</v>
       </c>
       <c r="B98" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -6840,7 +6840,7 @@
         <v>101</v>
       </c>
       <c r="B99" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -6848,7 +6848,7 @@
         <v>102</v>
       </c>
       <c r="B100" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6856,7 +6856,7 @@
         <v>103</v>
       </c>
       <c r="B101" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -6864,7 +6864,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6872,7 +6872,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -6880,7 +6880,7 @@
         <v>106</v>
       </c>
       <c r="B104" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6888,7 +6888,7 @@
         <v>107</v>
       </c>
       <c r="B105" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -6896,7 +6896,7 @@
         <v>108</v>
       </c>
       <c r="B106" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -6904,7 +6904,7 @@
         <v>109</v>
       </c>
       <c r="B107" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -6912,7 +6912,7 @@
         <v>110</v>
       </c>
       <c r="B108" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -6920,7 +6920,7 @@
         <v>111</v>
       </c>
       <c r="B109" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -6928,7 +6928,7 @@
         <v>112</v>
       </c>
       <c r="B110" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -6936,7 +6936,7 @@
         <v>113</v>
       </c>
       <c r="B111" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -6944,7 +6944,7 @@
         <v>114</v>
       </c>
       <c r="B112" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6952,7 +6952,7 @@
         <v>115</v>
       </c>
       <c r="B113" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -6960,7 +6960,7 @@
         <v>116</v>
       </c>
       <c r="B114" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -6968,7 +6968,7 @@
         <v>117</v>
       </c>
       <c r="B115" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -6976,7 +6976,7 @@
         <v>118</v>
       </c>
       <c r="B116" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>119</v>
       </c>
       <c r="B117" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -6992,7 +6992,7 @@
         <v>120</v>
       </c>
       <c r="B118" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -7000,7 +7000,7 @@
         <v>121</v>
       </c>
       <c r="B119" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>122</v>
       </c>
       <c r="B120" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>123</v>
       </c>
       <c r="B121" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -5758,7 +5758,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CD7E3CD7-3517-4D69-988D-A40F375600FE}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{914E769E-FECC-4016-AB8F-A91529117D42}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
@@ -6038,8 +6038,8 @@
   <sheetPr/>
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6072,7 +6072,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6080,7 +6080,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6088,7 +6088,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6096,7 +6096,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6104,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6112,7 +6112,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6120,7 +6120,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6128,7 +6128,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6136,7 +6136,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6144,7 +6144,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6152,7 +6152,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6160,7 +6160,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6168,7 +6168,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6176,7 +6176,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6184,7 +6184,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6192,7 +6192,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6200,7 +6200,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6208,7 +6208,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6216,7 +6216,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6224,7 +6224,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6232,7 +6232,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6240,7 +6240,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6248,7 +6248,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6256,7 +6256,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6264,7 +6264,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6272,7 +6272,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6280,7 +6280,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6288,7 +6288,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6296,7 +6296,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6304,7 +6304,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6312,7 +6312,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6320,7 +6320,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6328,7 +6328,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6336,7 +6336,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6344,7 +6344,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6352,7 +6352,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6360,7 +6360,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6368,7 +6368,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6376,7 +6376,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6384,7 +6384,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6392,7 +6392,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6400,7 +6400,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6408,7 +6408,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6416,7 +6416,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6424,7 +6424,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6432,7 +6432,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6440,7 +6440,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -6448,7 +6448,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6456,7 +6456,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -6464,7 +6464,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -6472,7 +6472,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6480,7 +6480,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6488,7 +6488,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -6496,7 +6496,7 @@
         <v>58</v>
       </c>
       <c r="B56" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -6504,7 +6504,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -6512,7 +6512,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -6520,7 +6520,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -6528,7 +6528,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6536,7 +6536,7 @@
         <v>63</v>
       </c>
       <c r="B61" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -6544,7 +6544,7 @@
         <v>64</v>
       </c>
       <c r="B62" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -6552,7 +6552,7 @@
         <v>65</v>
       </c>
       <c r="B63" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -6560,7 +6560,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -6568,7 +6568,7 @@
         <v>67</v>
       </c>
       <c r="B65" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6576,7 +6576,7 @@
         <v>68</v>
       </c>
       <c r="B66" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6584,7 +6584,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6592,7 +6592,7 @@
         <v>70</v>
       </c>
       <c r="B68" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -6600,7 +6600,7 @@
         <v>71</v>
       </c>
       <c r="B69" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6608,7 +6608,7 @@
         <v>72</v>
       </c>
       <c r="B70" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -6616,7 +6616,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6624,7 +6624,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6632,7 +6632,7 @@
         <v>75</v>
       </c>
       <c r="B73" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -6640,7 +6640,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6648,7 +6648,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6656,7 +6656,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6664,7 +6664,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -6672,7 +6672,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -6680,7 +6680,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6688,7 +6688,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -6696,7 +6696,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6704,7 +6704,7 @@
         <v>84</v>
       </c>
       <c r="B82" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -6712,7 +6712,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -6720,7 +6720,7 @@
         <v>86</v>
       </c>
       <c r="B84" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -6736,7 +6736,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -6744,7 +6744,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -6752,7 +6752,7 @@
         <v>90</v>
       </c>
       <c r="B88" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -6760,7 +6760,7 @@
         <v>91</v>
       </c>
       <c r="B89" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -6768,7 +6768,7 @@
         <v>92</v>
       </c>
       <c r="B90" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -6776,7 +6776,7 @@
         <v>93</v>
       </c>
       <c r="B91" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -6784,7 +6784,7 @@
         <v>94</v>
       </c>
       <c r="B92" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6792,7 +6792,7 @@
         <v>95</v>
       </c>
       <c r="B93" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -6800,7 +6800,7 @@
         <v>96</v>
       </c>
       <c r="B94" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6808,7 +6808,7 @@
         <v>97</v>
       </c>
       <c r="B95" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6816,7 +6816,7 @@
         <v>98</v>
       </c>
       <c r="B96" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -6824,7 +6824,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -6832,7 +6832,7 @@
         <v>100</v>
       </c>
       <c r="B98" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -6840,7 +6840,7 @@
         <v>101</v>
       </c>
       <c r="B99" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -6848,7 +6848,7 @@
         <v>102</v>
       </c>
       <c r="B100" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6856,7 +6856,7 @@
         <v>103</v>
       </c>
       <c r="B101" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -6864,7 +6864,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6872,7 +6872,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -6880,7 +6880,7 @@
         <v>106</v>
       </c>
       <c r="B104" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6888,7 +6888,7 @@
         <v>107</v>
       </c>
       <c r="B105" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -6896,7 +6896,7 @@
         <v>108</v>
       </c>
       <c r="B106" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -6904,7 +6904,7 @@
         <v>109</v>
       </c>
       <c r="B107" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -6912,7 +6912,7 @@
         <v>110</v>
       </c>
       <c r="B108" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -6920,7 +6920,7 @@
         <v>111</v>
       </c>
       <c r="B109" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -6928,7 +6928,7 @@
         <v>112</v>
       </c>
       <c r="B110" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -6936,7 +6936,7 @@
         <v>113</v>
       </c>
       <c r="B111" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -6944,7 +6944,7 @@
         <v>114</v>
       </c>
       <c r="B112" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6952,7 +6952,7 @@
         <v>115</v>
       </c>
       <c r="B113" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -6960,7 +6960,7 @@
         <v>116</v>
       </c>
       <c r="B114" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -6968,7 +6968,7 @@
         <v>117</v>
       </c>
       <c r="B115" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -6976,7 +6976,7 @@
         <v>118</v>
       </c>
       <c r="B116" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>119</v>
       </c>
       <c r="B117" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -6992,7 +6992,7 @@
         <v>120</v>
       </c>
       <c r="B118" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -7000,7 +7000,7 @@
         <v>121</v>
       </c>
       <c r="B119" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>122</v>
       </c>
       <c r="B120" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>123</v>
       </c>
       <c r="B121" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
